--- a/内衣商品.xlsx
+++ b/内衣商品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16600"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>货号</t>
   </si>
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -189,36 +189,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,23 +200,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,56 +237,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,6 +260,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -329,8 +290,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +548,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,82 +643,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,148 +653,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -814,54 +814,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1128,15 +1128,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="2" customWidth="1"/>

--- a/内衣商品.xlsx
+++ b/内衣商品.xlsx
@@ -192,6 +192,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -207,8 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,9 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,20 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -298,9 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +322,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,21 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,13 +357,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,169 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,32 +560,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,13 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,11 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,133 +668,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="1" customWidth="1"/>
@@ -1154,7 +1154,7 @@
     <col min="10" max="16384" width="9" style="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="93" customHeight="1" spans="1:9">
+    <row r="1" ht="67" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/内衣商品.xlsx
+++ b/内衣商品.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -51,17 +51,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>出水芙蓉胸衣</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -80,17 +74,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>千鸟格男睡衣</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -109,17 +97,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>希玛莎小裤</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -138,17 +120,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>美肤船袜</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -171,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -185,13 +161,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -200,14 +196,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,21 +280,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,91 +318,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -357,19 +333,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,163 +489,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,11 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,41 +562,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +601,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,136 +647,139 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,8 +787,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1137,184 +1116,184 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="16384" width="9" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>123</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>566</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>4324</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>34</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>123</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="6:6">
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
